--- a/vytrack_testusers.xlsx
+++ b/vytrack_testusers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marufjon/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/banu/IdeaProjects/Summer2019OnlinetestNGSSeleniumProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2619DA58-6DD0-4D44-B570-C028C98726BF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5103BD-F26C-5946-8391-FF6806DB165A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41120" yWindow="1540" windowWidth="33600" windowHeight="18920" activeTab="5" xr2:uid="{506372D9-39D2-EA47-AA3D-ABD5428ED2AB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="3" xr2:uid="{506372D9-39D2-EA47-AA3D-ABD5428ED2AB}"/>
   </bookViews>
   <sheets>
     <sheet name="QA1-all" sheetId="4" r:id="rId1"/>
@@ -20,16 +20,10 @@
     <sheet name="QA3-all" sheetId="1" r:id="rId5"/>
     <sheet name="QA3-short" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -13605,8 +13599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE515BF-79FE-384F-8A87-78DFBA2D1E2F}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="223" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="223" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18143,7 +18137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C30F00C-C683-0548-B7C4-02FB1EBCAEF1}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+    <sheetView zoomScale="200" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
